--- a/biology/Médecine/Centre_national_de_pharmacovigilance/Centre_national_de_pharmacovigilance.xlsx
+++ b/biology/Médecine/Centre_national_de_pharmacovigilance/Centre_national_de_pharmacovigilance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre national de pharmacovigilance (arabe : المركز الوطني للحذر من نتائج إستعمال الأدوية) ou CNPV est un centre national tunisien de pharmacovigilance, créé par la loi n°84-84 et rattaché au ministère de la Santé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre national de pharmacovigilance (arabe : المركز الوطني للحذر من نتائج إستعمال الأدوية) ou CNPV est un centre national tunisien de pharmacovigilance, créé par la loi n°84-84 et rattaché au ministère de la Santé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Son installation est achevée après trois phases[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Son installation est achevée après trois phases :
 Une première phase transitoire (1985-1987) ;
 une seconde phase de structuration matérielle et de fonctionnement expérimental (1987-1990) durant laquelle un directeur médical est nommé ;
 une troisième phase dite opérationnelle commençant en décembre 1990 : elle permet la mise en place des différents services et le démarrage de la gestion des dossiers de pharmacovigilance.</t>
@@ -544,9 +558,11 @@
           <t>Structuration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir de 2006, le centre est installé dans les anciens locaux administratifs de la faculté de médecine de Tunis au numéro 9 de l'avenue du docteur Zouhair Essafi à Tunis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 2006, le centre est installé dans les anciens locaux administratifs de la faculté de médecine de Tunis au numéro 9 de l'avenue du docteur Zouhair Essafi à Tunis.
 Il existe différents services dont :
 le service de recueil et d'analyse des effets indésirables ;
 le service de pharmacologie clinique implanté à l'hôpital Charles-Nicolle ;
@@ -582,9 +598,11 @@
           <t>Coopération</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CNPV travaille en étroite collaboration avec les structures internationales de pharmacovigilance, notamment le Centre de pharmacovigilance (en) de l'OMS à Uppsala en Suède, qui a permis à la Tunisie de devenir le quarantième pays membre du programme de pharmacovigilance internationale de l'OMS, depuis août 1993[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CNPV travaille en étroite collaboration avec les structures internationales de pharmacovigilance, notamment le Centre de pharmacovigilance (en) de l'OMS à Uppsala en Suède, qui a permis à la Tunisie de devenir le quarantième pays membre du programme de pharmacovigilance internationale de l'OMS, depuis août 1993.
 </t>
         </is>
       </c>
